--- a/pred_ohlcv/54_21/2020-01-19 XMR ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-19 XMR ohlcv.xlsx
@@ -470,7 +470,7 @@
         <v>557.7896179157387</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>603.4767179157387</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>475.7985179157387</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>475.7985179157387</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>445.7485179157387</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>445.7485179157387</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>424.1094179157387</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -704,7 +704,7 @@
         <v>407.7259179157388</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -860,7 +860,7 @@
         <v>389.1301179157388</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>389.1301179157388</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>428.9525179157388</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -964,7 +964,7 @@
         <v>428.9654179157388</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>356.1093179157388</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>350.8531179157388</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>350.8531179157388</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>350.8531179157388</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>335.1131179157388</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>3.922717915738758</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>1.492317915738758</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>1.492317915738758</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-511.9526799112815</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-510.6951852507675</v>
       </c>
       <c r="H148">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-556.7533852507675</v>
       </c>
       <c r="H151">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-554.7533852507675</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-555.6013852507674</v>
       </c>
       <c r="H153">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-567.3513852507674</v>
       </c>
       <c r="H154">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-579.1013852507674</v>
       </c>
       <c r="H155">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-577.9908852507674</v>
       </c>
       <c r="H156">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-578.0320852507674</v>
       </c>
       <c r="H157">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-576.9941852507674</v>
       </c>
       <c r="H158">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-567.7437852507674</v>
       </c>
       <c r="H159">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-567.7437852507674</v>
       </c>
       <c r="H160">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-567.7437852507674</v>
       </c>
       <c r="H161">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-563.9641852507674</v>
       </c>
       <c r="H162">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-563.0169852507674</v>
       </c>
       <c r="H163">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-561.2288650407945</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-561.2288650407945</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-596.4324650407943</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-615.7268650407943</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-615.7140650407944</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-628.6593650407943</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-496.0084650407944</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-481.6587650407944</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-482.7633650407944</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-481.7298650407944</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-19 XMR ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-19 XMR ohlcv.xlsx
@@ -678,7 +678,7 @@
         <v>424.1164179157387</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>407.7259179157388</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>420.4658179157387</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -782,7 +782,7 @@
         <v>417.1327179157387</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>417.5776179157388</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>389.1301179157388</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -938,7 +938,7 @@
         <v>428.9654179157388</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>428.9654179157388</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>356.1093179157388</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>350.8531179157388</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>350.8531179157388</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>350.8531179157388</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>335.1131179157388</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>3.922717915738758</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>1.492317915738758</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>1.492317915738758</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-95.77618208426124</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-567.3513852507674</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-579.1013852507674</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-577.9908852507674</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-578.0320852507674</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-576.9941852507674</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-567.7437852507674</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-567.7437852507674</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-567.7437852507674</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-563.9641852507674</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-563.0169852507674</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-561.2288650407945</v>
       </c>
       <c r="H166">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-561.2288650407945</v>
       </c>
       <c r="H167">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-696.8336650407944</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-698.1516650407943</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-698.1516650407943</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-698.1516650407943</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-658.6023650407943</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-641.8298650407943</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-653.4005650407943</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-652.4046650407943</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-602.1127650407943</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-664.6948650407943</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-614.8953650407943</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-596.3524650407943</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-596.3524650407943</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-596.4324650407943</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-615.7268650407943</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-615.7140650407944</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-628.6593650407943</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-496.0084650407944</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-481.6587650407944</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-482.7633650407944</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-481.7298650407944</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-481.7298650407944</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-488.1820650407944</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-545.7255650407944</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-514.6775650407944</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-511.9313650407944</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-511.2213650407945</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-466.8027650407945</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-466.8027650407945</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:8">
